--- a/06-01-25 to 06-07-25 Milwaukee Schedule.xlsx
+++ b/06-01-25 to 06-07-25 Milwaukee Schedule.xlsx
@@ -760,7 +760,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #093, OCONOMOWOC</t>
+          <t>FOX BROS PIGGLY WIGGLY #093, OCONOMOWOC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -831,7 +831,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #083, 
+          <t>FOX BROS PIGGLY WIGGLY #083, 
 BEAVER DAM</t>
         </is>
       </c>
@@ -840,7 +840,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #084, 
+          <t>FOX BROS PIGGLY WIGGLY #084, 
 WEST BEND</t>
         </is>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #086, PORT WASHINGTON</t>
+          <t>FOX BROS PIGGLY WIGGLY #086, PORT WASHINGTON</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2641,7 +2641,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #091, SLINGER</t>
+          <t>FOX BROS PIGGLY WIGGLY #091, SLINGER</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3527,7 +3527,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #090, JACKSON</t>
+          <t>FOX BROS PIGGLY WIGGLY #090, JACKSON</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
